--- a/xlsx/BBC_intext.xlsx
+++ b/xlsx/BBC_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="670">
   <si>
     <t>BBC</t>
   </si>
@@ -29,13 +29,13 @@
     <t>BBC (消歧义)</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_BBC</t>
+    <t>政策_政策_维基百科_BBC</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E5%BB%A3%E6%92%AD</t>
   </si>
   <si>
-    <t>公共廣播</t>
+    <t>公共广播</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/British_Broadcasting_Company</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E8%BE%A6%E4%BA%BA</t>
   </si>
   <si>
-    <t>創辦人</t>
+    <t>创办人</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/John_Reith,_1st_Baron_Reith</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/BBC%E5%BB%A3%E6%92%AD%E5%A4%A7%E6%A8%93</t>
   </si>
   <si>
-    <t>BBC廣播大樓</t>
+    <t>BBC广播大楼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A7%E4%B8%9A</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%9C%BE%E5%AA%92%E9%AB%94</t>
   </si>
   <si>
-    <t>大眾媒體</t>
+    <t>大众媒体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%BF%E6%92%AD_(%E5%A4%A7%E4%BC%97%E5%AA%92%E4%BD%93)</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%87%9F%E6%A5%AD%E9%A1%8D</t>
   </si>
   <si>
-    <t>營業額</t>
+    <t>营业额</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E9%95%91</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%AE%E5%AF%AB</t>
   </si>
   <si>
-    <t>縮寫</t>
+    <t>缩写</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C</t>
@@ -197,7 +197,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A0%B1%E5%88%8A</t>
   </si>
   <si>
-    <t>報刊</t>
+    <t>报刊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A4%E5%93%8D%E4%B9%90%E5%9B%A2</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E9%80%9A%E7%94%A8%E9%9B%BB%E6%B0%A3%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>英國通用電氣公司</t>
+    <t>英国通用电气公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%B3%A2</t>
@@ -257,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%BE%B9%E6%96%AF%E7%89%B9</t>
   </si>
   <si>
-    <t>曼徹斯特</t>
+    <t>曼彻斯特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%87%E5%AE%B6%E7%89%B9%E8%AE%B8%E7%8A%B6</t>
@@ -329,7 +329,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E4%B8%8B%E9%9B%BB%E5%8F%B0</t>
   </si>
   <si>
-    <t>地下電台</t>
+    <t>地下电台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/BBC_Radio_1</t>
@@ -365,31 +365,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E6%98%9F</t>
   </si>
   <si>
-    <t>衛星</t>
+    <t>卫星</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A7%A3%E7%A2%BC%E5%99%A8</t>
   </si>
   <si>
-    <t>解碼器</t>
+    <t>解码器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%BB%A3%E6%92%AD%E5%85%AC%E5%8F%B8%E7%AC%AC%E4%B8%80%E5%8F%B0</t>
   </si>
   <si>
-    <t>英國廣播公司第一台</t>
+    <t>英国广播公司第一台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%BB%A3%E6%92%AD%E5%85%AC%E5%8F%B8%E7%AC%AC%E4%BA%8C%E5%8F%B0</t>
   </si>
   <si>
-    <t>英國廣播公司第二台</t>
+    <t>英国广播公司第二台</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/George_Entwistle</t>
@@ -431,7 +431,7 @@
     <t>https://zh.wikipedia.org/wiki/BBC%E9%9B%BB%E8%A6%96%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>BBC電視中心</t>
+    <t>BBC电视中心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%8D%AB%C2%B7%E7%BD%97%E4%BC%8A</t>
@@ -485,7 +485,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E9%9B%BB%E5%BB%A0</t>
   </si>
   <si>
-    <t>發電廠</t>
+    <t>发电厂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%8C%81%E4%BA%BA</t>
@@ -581,7 +581,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AD%E5%9C%8B%E9%8C%A6%E6%A8%99%E8%B3%BD</t>
   </si>
   <si>
-    <t>六國錦標賽</t>
+    <t>六国锦标赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4%E5%8D%97%E9%9D%9E%E4%B8%96%E7%95%8C%E6%9D%AF</t>
@@ -611,19 +611,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%BB%A3%E6%92%AD%E5%85%AC%E5%8F%B8%E7%AC%AC%E5%9B%9B%E5%8F%B0</t>
   </si>
   <si>
-    <t>英國廣播公司第四台</t>
+    <t>英国广播公司第四台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%BB%A3%E6%92%AD%E5%85%AC%E5%8F%B8%E6%96%B0%E8%81%9E%E5%8F%B0</t>
   </si>
   <si>
-    <t>英國廣播公司新聞台</t>
+    <t>英国广播公司新闻台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/BBC%E5%9C%8B%E6%9C%83%E5%8F%B0</t>
   </si>
   <si>
-    <t>BBC國會台</t>
+    <t>BBC国会台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/CBBC</t>
@@ -635,7 +635,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%BB%A3%E6%92%AD%E5%85%AC%E5%8F%B8%E7%AC%AC%E4%B8%89%E5%8F%B0</t>
   </si>
   <si>
-    <t>英國廣播公司第三台</t>
+    <t>英国广播公司第三台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/BBC_Entertainment</t>
@@ -653,9 +653,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2</t>
   </si>
   <si>
-    <t>欧洲</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/BBC_Food</t>
   </si>
   <si>
@@ -671,7 +668,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%AD%90</t>
   </si>
   <si>
-    <t>北歐</t>
+    <t>北欧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD%E5%B9%BF%E6%92%AD%E5%85%AC%E5%8F%B8%E4%B8%96%E7%95%8C%E6%96%B0%E9%97%BB%E9%A2%91%E9%81%93</t>
@@ -683,7 +680,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%BB%A3%E6%92%AD%E5%85%AC%E5%8F%B8%E9%AB%98%E6%B8%85%E5%8F%B0</t>
   </si>
   <si>
-    <t>英國廣播公司高清台</t>
+    <t>英国广播公司高清台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%85%B8%E9%9F%B3%E4%B9%90</t>
@@ -701,13 +698,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%BB%A3%E6%92%AD%E5%85%AC%E5%8F%B8%E6%9C%AC%E5%9C%B0%E7%84%A1%E7%B7%9A%E9%9B%BB%E5%8F%B0</t>
   </si>
   <si>
-    <t>英國廣播公司本地無線電台</t>
+    <t>英国广播公司本地无线电台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E4%BC%8A%E7%88%BE_(%E8%8B%B1%E5%9C%8B%E5%9C%8B%E6%9C%83%E9%81%B8%E5%8D%80)</t>
   </si>
   <si>
-    <t>福伊爾 (英國國會選區)</t>
+    <t>福伊尔 (英国国会选区)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/BBC%E5%85%A8%E7%90%83%E6%9C%8D%E5%8A%A1</t>
@@ -737,7 +734,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%92%B0</t>
   </si>
   <si>
-    <t>中環</t>
+    <t>中环</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%80%9A%E8%AF%9D</t>
@@ -749,19 +746,16 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E8%AA%9E</t>
   </si>
   <si>
-    <t>華語</t>
+    <t>华语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%B5%E8%AA%9E</t>
   </si>
   <si>
-    <t>粵語</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%B2%E7%81%AB%E9%95%B7%E5%9F%8E</t>
   </si>
   <si>
-    <t>防火長城</t>
+    <t>防火长城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2008%E5%B9%B43%E6%9C%88</t>
@@ -773,7 +767,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E9%81%8B</t>
   </si>
   <si>
-    <t>奧運</t>
+    <t>奥运</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/CNN</t>
@@ -803,7 +797,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E7%B1%B3%C2%B7%E8%96%A9%E7%B6%AD%E7%88%BE</t>
   </si>
   <si>
-    <t>吉米·薩維爾</t>
+    <t>吉米·萨维尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E6%80%A7</t>
@@ -815,13 +809,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%88%BE%E8%A1%97%E6%97%A5%E5%A0%B1</t>
   </si>
   <si>
-    <t>華爾街日報</t>
+    <t>华尔街日报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E5%95%86%E6%A5%AD%E9%9B%BB%E5%8F%B0</t>
   </si>
   <si>
-    <t>香港商業電台</t>
+    <t>香港商业电台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Twitter</t>
@@ -833,13 +827,13 @@
     <t>https://zh.wikipedia.org/wiki/BBC%E4%BA%A4%E9%9F%BF%E6%A8%82%E5%9C%98</t>
   </si>
   <si>
-    <t>BBC交響樂團</t>
+    <t>BBC交响乐团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/BBC%E5%80%AB%E6%95%A6</t>
   </si>
   <si>
-    <t>BBC倫敦</t>
+    <t>BBC伦敦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E5%9B%BD%E9%99%85%E5%B9%BF%E6%92%AD%E7%94%B5%E5%8F%B0</t>
@@ -893,7 +887,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E5%BB%A3%E6%92%AD%E9%9B%BB%E8%87%BA</t>
   </si>
   <si>
-    <t>中央廣播電臺</t>
+    <t>中央广播电台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E5%9B%BD%E9%99%85%E5%B9%BF%E6%92%AD%E7%94%B5%E5%8F%B0</t>
@@ -923,13 +917,13 @@
     <t>https://zh.wikipedia.org/wiki/KBS%E9%9F%93%E6%B0%91%E6%97%8F%E6%94%BE%E9%80%81</t>
   </si>
   <si>
-    <t>KBS韓民族放送</t>
+    <t>KBS韩民族放送</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%8C%97%E9%9F%93%E6%94%BE%E9%80%81</t>
   </si>
   <si>
-    <t>自由北韓放送</t>
+    <t>自由北韩放送</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%9C%9D%E9%B2%9C%E5%B9%BF%E6%92%AD</t>
@@ -941,7 +935,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%9F%93%E6%94%B9%E9%9D%A9%E6%94%BE%E9%80%81</t>
   </si>
   <si>
-    <t>北韓改革放送</t>
+    <t>北韩改革放送</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%B7%E9%87%8E%E4%B9%8B%E5%A3%B0</t>
@@ -983,7 +977,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%94%BE%E5%8C%97%E9%9F%93%E6%94%BE%E9%80%81</t>
   </si>
   <si>
-    <t>開放北韓放送</t>
+    <t>开放北韩放送</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E4%B9%8B%E5%A3%B0</t>
@@ -995,7 +989,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E5%A3%A4%E5%BB%A3%E6%92%AD%E9%9B%BB%E5%8F%B0</t>
   </si>
   <si>
-    <t>平壤廣播電台</t>
+    <t>平壤广播电台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%9F%E4%B8%80%E7%9A%84%E5%9B%9E%E5%A3%B0%E5%B9%BF%E6%92%AD%E7%94%B5%E5%8F%B0</t>
@@ -1007,25 +1001,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%91%E5%9C%8B%E4%B9%8B%E8%81%B2%E5%BB%A3%E6%92%AD%E9%9B%BB%E5%8F%B0</t>
   </si>
   <si>
-    <t>救國之聲廣播電台</t>
+    <t>救国之声广播电台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%8F%A4%E4%B9%8B%E8%81%B2</t>
   </si>
   <si>
-    <t>蒙古之聲</t>
+    <t>蒙古之声</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E4%B9%8B%E8%81%B2</t>
   </si>
   <si>
-    <t>越南之聲</t>
+    <t>越南之声</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B%E5%BB%A3%E6%92%AD%E9%9B%BB%E5%8F%B0%E5%9C%8B%E9%9A%9B%E8%87%BA</t>
   </si>
   <si>
-    <t>泰國廣播電台國際臺</t>
+    <t>泰国广播电台国际台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%81%E6%8C%9D%E5%9B%BD%E5%AE%B6%E5%B9%BF%E6%92%AD%E7%94%B5%E5%8F%B0</t>
@@ -1049,7 +1043,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%A5%BF%E4%BA%9E%E4%B9%8B%E8%81%B2</t>
   </si>
   <si>
-    <t>馬來西亞之聲</t>
+    <t>马来西亚之声</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E5%AE%BE%E5%B9%BF%E6%92%AD%E7%94%B5%E5%8F%B0</t>
@@ -1067,7 +1061,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E5%BB%A3%E6%92%AD%E9%9B%BB%E5%8F%B0</t>
   </si>
   <si>
-    <t>越南廣播電台</t>
+    <t>越南广播电台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5%E4%BA%9A%E9%9D%A9%E5%91%BD%E4%B9%8B%E5%A3%B0%E5%B9%BF%E6%92%AD%E7%94%B5%E5%8F%B0</t>
@@ -1097,7 +1091,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%9F%BA%E6%96%AF%E5%9D%A6%E5%BB%A3%E6%92%AD%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>巴基斯坦廣播公司</t>
+    <t>巴基斯坦广播公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E4%BB%80%E5%B9%B2%E5%9B%BD%E9%99%85%E5%B9%BF%E6%92%AD%E7%94%B5%E5%8F%B0</t>
@@ -1121,7 +1115,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6%E4%B9%8B%E8%81%B2</t>
   </si>
   <si>
-    <t>土耳其之聲</t>
+    <t>土耳其之声</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%A8%81%E7%89%B9%E5%B9%BF%E6%92%AD%E7%94%B5%E5%8F%B0</t>
@@ -1151,19 +1145,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%BB%A3%E6%92%AD%E5%85%AC%E5%8F%B8%E5%9C%8B%E9%9A%9B%E9%A0%BB%E9%81%93</t>
   </si>
   <si>
-    <t>英國廣播公司國際頻道</t>
+    <t>英国广播公司国际频道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E4%B8%89%E8%BB%8D%E5%BB%A3%E6%92%AD%E6%9C%8D%E5%8B%99</t>
   </si>
   <si>
-    <t>英國三軍廣播服務</t>
+    <t>英国三军广播服务</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD%E5%BB%A3%E6%92%AD%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>愛爾蘭廣播電視</t>
+    <t>爱尔兰广播电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E9%99%85%E5%B9%BF%E6%92%AD%E7%94%B5%E5%8F%B0</t>
@@ -1187,13 +1181,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E5%9C%8B%E9%9A%9B%E5%BB%A3%E6%92%AD%E9%9B%BB%E5%8F%B0</t>
   </si>
   <si>
-    <t>瑞士國際廣播電台</t>
+    <t>瑞士国际广播电台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%9C%B0%E5%88%A9%E5%BB%A3%E6%92%AD%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>奧地利廣播集團</t>
+    <t>奥地利广播集团</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Radio_Slovakia_International</t>
@@ -1253,13 +1247,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1%E5%BB%A3%E6%92%AD%E9%9B%BB%E5%8F%B0</t>
   </si>
   <si>
-    <t>梵蒂岡廣播電台</t>
+    <t>梵蒂冈广播电台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%88%BE%E7%B6%AD%E4%BA%9E%E5%9C%8B%E9%9A%9B%E5%BB%A3%E6%92%AD%E9%9B%BB%E5%8F%B0</t>
   </si>
   <si>
-    <t>塞爾維亞國際廣播電台</t>
+    <t>塞尔维亚国际广播电台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%8F%8A%E5%B9%BF%E6%92%AD%E7%94%B5%E5%8F%B0</t>
@@ -1295,7 +1289,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E4%BC%8A%E6%8B%89%E5%85%8B%E9%9B%BB%E5%8F%B0</t>
   </si>
   <si>
-    <t>自由伊拉克電台</t>
+    <t>自由伊拉克电台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%92%82%E7%94%B5%E8%A7%86%E5%8F%B0</t>
@@ -1421,7 +1415,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E8%98%AD%E5%9C%8B%E9%9A%9B%E5%BB%A3%E6%92%AD%E9%9B%BB%E5%8F%B0</t>
   </si>
   <si>
-    <t>新西蘭國際廣播電台</t>
+    <t>新西兰国际广播电台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/CVC%E5%B9%BF%E6%92%AD%E7%94%B5%E5%8F%B0</t>
@@ -1445,13 +1439,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E8%AF%AD</t>
   </si>
   <si>
-    <t>华语</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%BB%A3%E6%92%AD%E5%85%AC%E5%8F%B8%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>英國廣播公司電視</t>
+    <t>英国广播公司电视</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/BBC_One_Northern_Ireland</t>
@@ -1493,7 +1484,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%BB%A3%E6%92%AD%E5%85%AC%E5%8F%B8%E8%AD%B0%E6%9C%83%E5%8F%B0</t>
   </si>
   <si>
-    <t>英國廣播公司議會台</t>
+    <t>英国广播公司议会台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/CBeebies</t>
@@ -1505,25 +1496,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E7%88%BE%E6%96%AF%E7%AC%AC%E5%9B%9B%E5%8F%B0</t>
   </si>
   <si>
-    <t>威爾斯第四台</t>
+    <t>威尔斯第四台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%BB%A3%E6%92%AD%E5%85%AC%E5%8F%B8%E8%98%87%E6%A0%BC%E8%98%AD%E8%93%8B%E7%88%BE%E8%AA%9E%E9%A0%BB%E9%81%93</t>
   </si>
   <si>
-    <t>英國廣播公司蘇格蘭蓋爾語頻道</t>
+    <t>英国广播公司苏格兰盖尔语频道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%BB%A3%E6%92%AD%E5%85%AC%E5%8F%B8%E7%BE%8E%E5%9C%8B%E5%8F%B0</t>
   </si>
   <si>
-    <t>英國廣播公司美國台</t>
+    <t>英国广播公司美国台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%BB%A3%E6%92%AD%E5%85%AC%E5%8F%B8%E9%98%BF%E6%8B%89%E4%BC%AF%E8%AA%9E%E9%A0%BB%E9%81%93</t>
   </si>
   <si>
-    <t>英國廣播公司阿拉伯語頻道</t>
+    <t>英国广播公司阿拉伯语频道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/BBC_Brit</t>
@@ -1553,7 +1544,7 @@
     <t>https://zh.wikipedia.org/wiki/BBC%E7%9F%A5%E8%AD%98_(%E5%9C%8B%E9%9A%9B)</t>
   </si>
   <si>
-    <t>BBC知識 (國際)</t>
+    <t>BBC知识 (国际)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/BBC_Lifestyle</t>
@@ -1571,9 +1562,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%BB%A3%E6%92%AD%E5%85%AC%E5%8F%B8%E4%B8%96%E7%95%8C%E6%96%B0%E8%81%9E%E9%A0%BB%E9%81%93</t>
   </si>
   <si>
-    <t>英國廣播公司世界新聞頻道</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/UKTV</t>
   </si>
   <si>
@@ -1583,25 +1571,25 @@
     <t>https://zh.wikipedia.org/wiki/BBC%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>BBC新聞</t>
+    <t>BBC新闻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/BBC%E9%AB%94%E8%82%B2</t>
   </si>
   <si>
-    <t>BBC體育</t>
+    <t>BBC体育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/BBC%E5%A4%A9%E6%B0%A3</t>
   </si>
   <si>
-    <t>BBC天氣</t>
+    <t>BBC天气</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/BBC%E8%98%87%E6%A0%BC%E8%98%AD</t>
   </si>
   <si>
-    <t>BBC蘇格蘭</t>
+    <t>BBC苏格兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/BBC%E5%A8%81%E5%B0%94%E5%A3%AB</t>
@@ -1613,13 +1601,13 @@
     <t>https://zh.wikipedia.org/wiki/BBC%E5%8C%97%E6%84%9B%E7%88%BE%E8%98%AD</t>
   </si>
   <si>
-    <t>BBC北愛爾蘭</t>
+    <t>BBC北爱尔兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/BBC%E6%9D%B1%E5%8C%97%E5%92%8C%E5%9D%8E%E5%B8%83%E9%87%8C%E4%BA%9E</t>
   </si>
   <si>
-    <t>BBC東北和坎布里亞</t>
+    <t>BBC东北和坎布里亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/BBC%E8%A5%BF%E5%8C%97</t>
@@ -1631,13 +1619,13 @@
     <t>https://zh.wikipedia.org/wiki/BBC%E7%B4%84%E5%85%8B%E9%83%A1</t>
   </si>
   <si>
-    <t>BBC約克郡</t>
+    <t>BBC约克郡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/BBC%E7%B4%84%E5%85%8B%E9%83%A1%E5%92%8C%E6%9E%97%E8%82%AF%E9%83%A1</t>
   </si>
   <si>
-    <t>BBC約克郡和林肯郡</t>
+    <t>BBC约克郡和林肯郡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/BBC%E8%A5%BF%E9%83%A8</t>
@@ -1649,19 +1637,19 @@
     <t>https://zh.wikipedia.org/wiki/BBC%E8%A5%BF%E7%B1%B3%E5%BE%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>BBC西米德蘭</t>
+    <t>BBC西米德兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/BBC%E6%9D%B1%E7%B1%B3%E5%BE%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>BBC東米德蘭</t>
+    <t>BBC东米德兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/BBC%E6%9D%B1%E9%83%A8</t>
   </si>
   <si>
-    <t>BBC東部</t>
+    <t>BBC东部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/BBC%E8%A5%BF%E5%8D%97</t>
@@ -1679,13 +1667,13 @@
     <t>https://zh.wikipedia.org/wiki/BBC%E6%9D%B1%E5%8D%97</t>
   </si>
   <si>
-    <t>BBC東南</t>
+    <t>BBC东南</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%BB%A3%E6%92%AD%E5%85%AC%E5%8F%B8%E5%A8%9B%E6%A8%82%E5%8F%B0</t>
   </si>
   <si>
-    <t>英國廣播公司娛樂台</t>
+    <t>英国广播公司娱乐台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/BBC_Prime</t>
@@ -1709,27 +1697,24 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E5%AE%AE</t>
   </si>
   <si>
-    <t>白宮</t>
+    <t>白宫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E5%B8%83%E9%9B%B7%E8%BF%AA%E6%96%B0%E8%81%9E%E7%B0%A1%E5%A0%B1%E5%AE%A4</t>
   </si>
   <si>
-    <t>詹姆斯·布雷迪新聞簡報室</t>
+    <t>詹姆斯·布雷迪新闻简报室</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NBC%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>NBC新聞</t>
+    <t>NBC新闻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E5%B0%94%E8%A1%97%E6%97%A5%E6%8A%A5</t>
   </si>
   <si>
-    <t>华尔街日报</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E6%96%B0%E7%A4%BE</t>
   </si>
   <si>
@@ -1769,7 +1754,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E6%96%AF%E6%96%B0%E8%81%9E%E9%A0%BB%E9%81%93</t>
   </si>
   <si>
-    <t>福斯新聞頻道</t>
+    <t>福斯新闻频道</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/CBS_Radio_News</t>
@@ -1787,7 +1772,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E4%BB%A3%E9%9B%9C%E8%AA%8C</t>
   </si>
   <si>
-    <t>時代雜誌</t>
+    <t>时代杂志</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Yahoo!_News</t>
@@ -1805,13 +1790,13 @@
     <t>https://zh.wikipedia.org/wiki/CBS%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>CBS新聞</t>
+    <t>CBS新闻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%AD%E5%8D%9A%E6%96%B0%E8%81%9E%E7%A4%BE</t>
   </si>
   <si>
-    <t>彭博新聞社</t>
+    <t>彭博新闻社</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/The_McClatchy_Company</t>
@@ -1841,7 +1826,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A0%93%E7%92%B0%E7%90%83%E5%A0%B1</t>
   </si>
   <si>
-    <t>波士頓環球報</t>
+    <t>波士顿环球报</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Roll_Call</t>
@@ -1877,13 +1862,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A6%96%E5%8D%9A%E6%81%A9</t>
   </si>
   <si>
-    <t>視博恩</t>
+    <t>视博恩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ABC%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>ABC新聞</t>
+    <t>ABC新闻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E9%82%AE%E6%8A%A5</t>
@@ -1913,19 +1898,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E9%83%B5%E5%A0%B1</t>
   </si>
   <si>
-    <t>紐約郵報</t>
+    <t>纽约邮报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%8F%E6%97%A5%E9%83%B5%E5%A0%B1</t>
   </si>
   <si>
-    <t>每日郵報</t>
+    <t>每日邮报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%BB%A3%E6%92%AD%E5%85%AC%E5%8F%B8%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>英國廣播公司新聞</t>
+    <t>英国广播公司新闻</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/One_America_News_Network</t>
@@ -1949,7 +1934,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E8%AB%96%E5%A3%87%E5%A0%B1</t>
   </si>
   <si>
-    <t>芝加哥論壇報</t>
+    <t>芝加哥论坛报</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/RealClearPolitics</t>
@@ -1967,7 +1952,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E6%AF%8F%E6%97%A5%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>紐約每日新聞</t>
+    <t>纽约每日新闻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/BuzzFeed</t>
@@ -1979,13 +1964,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%8F%E6%97%A5%E9%87%8E%E7%8D%B8</t>
   </si>
   <si>
-    <t>每日野獸</t>
+    <t>每日野兽</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%8A%E6%97%A5%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>今日美國</t>
+    <t>今日美国</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/ABC_News_Radio</t>
@@ -2009,7 +1994,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E9%9B%BB%E8%A6%96%E7%B6%B2_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>公共電視網 (美國)</t>
+    <t>公共电视网 (美国)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Westwood_One_(current)</t>
@@ -2021,19 +2006,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%99%82%E5%A0%B1</t>
   </si>
   <si>
-    <t>金融時報</t>
+    <t>金融时报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E5%A0%B1</t>
   </si>
   <si>
-    <t>衛報</t>
+    <t>卫报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E5%AE%AE%E8%A8%98%E8%80%85%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>白宮記者協會</t>
+    <t>白宫记者协会</t>
   </si>
   <si>
     <t>浏览条目正文[c]</t>
@@ -5600,7 +5585,7 @@
         <v>211</v>
       </c>
       <c r="F111" t="s">
-        <v>212</v>
+        <v>118</v>
       </c>
       <c r="G111" t="n">
         <v>5</v>
@@ -5626,10 +5611,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>212</v>
+      </c>
+      <c r="F112" t="s">
         <v>213</v>
-      </c>
-      <c r="F112" t="s">
-        <v>214</v>
       </c>
       <c r="G112" t="n">
         <v>2</v>
@@ -5655,10 +5640,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>214</v>
+      </c>
+      <c r="F113" t="s">
         <v>215</v>
-      </c>
-      <c r="F113" t="s">
-        <v>216</v>
       </c>
       <c r="G113" t="n">
         <v>3</v>
@@ -5684,10 +5669,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>216</v>
+      </c>
+      <c r="F114" t="s">
         <v>217</v>
-      </c>
-      <c r="F114" t="s">
-        <v>218</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5713,10 +5698,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>218</v>
+      </c>
+      <c r="F115" t="s">
         <v>219</v>
-      </c>
-      <c r="F115" t="s">
-        <v>220</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5742,10 +5727,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>220</v>
+      </c>
+      <c r="F116" t="s">
         <v>221</v>
-      </c>
-      <c r="F116" t="s">
-        <v>222</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5771,10 +5756,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>222</v>
+      </c>
+      <c r="F117" t="s">
         <v>223</v>
-      </c>
-      <c r="F117" t="s">
-        <v>224</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5800,10 +5785,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>224</v>
+      </c>
+      <c r="F118" t="s">
         <v>225</v>
-      </c>
-      <c r="F118" t="s">
-        <v>226</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5829,10 +5814,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>226</v>
+      </c>
+      <c r="F119" t="s">
         <v>227</v>
-      </c>
-      <c r="F119" t="s">
-        <v>228</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5858,10 +5843,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>228</v>
+      </c>
+      <c r="F120" t="s">
         <v>229</v>
-      </c>
-      <c r="F120" t="s">
-        <v>230</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5887,10 +5872,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>230</v>
+      </c>
+      <c r="F121" t="s">
         <v>231</v>
-      </c>
-      <c r="F121" t="s">
-        <v>232</v>
       </c>
       <c r="G121" t="n">
         <v>5</v>
@@ -5916,10 +5901,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>232</v>
+      </c>
+      <c r="F122" t="s">
         <v>233</v>
-      </c>
-      <c r="F122" t="s">
-        <v>234</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5945,10 +5930,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>234</v>
+      </c>
+      <c r="F123" t="s">
         <v>235</v>
-      </c>
-      <c r="F123" t="s">
-        <v>236</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5974,10 +5959,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>236</v>
+      </c>
+      <c r="F124" t="s">
         <v>237</v>
-      </c>
-      <c r="F124" t="s">
-        <v>238</v>
       </c>
       <c r="G124" t="n">
         <v>4</v>
@@ -6003,10 +5988,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>238</v>
+      </c>
+      <c r="F125" t="s">
         <v>239</v>
-      </c>
-      <c r="F125" t="s">
-        <v>240</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -6032,10 +6017,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>240</v>
+      </c>
+      <c r="F126" t="s">
         <v>241</v>
-      </c>
-      <c r="F126" t="s">
-        <v>242</v>
       </c>
       <c r="G126" t="n">
         <v>2</v>
@@ -6061,10 +6046,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>242</v>
+      </c>
+      <c r="F127" t="s">
         <v>243</v>
-      </c>
-      <c r="F127" t="s">
-        <v>244</v>
       </c>
       <c r="G127" t="n">
         <v>3</v>
@@ -6090,10 +6075,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F128" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="G128" t="n">
         <v>2</v>
@@ -6119,10 +6104,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F129" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -6148,10 +6133,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F130" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -6177,10 +6162,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F131" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6206,10 +6191,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F132" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G132" t="n">
         <v>2</v>
@@ -6235,10 +6220,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F133" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G133" t="n">
         <v>2</v>
@@ -6264,10 +6249,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F134" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G134" t="n">
         <v>2</v>
@@ -6293,10 +6278,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F135" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6322,10 +6307,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F136" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6351,10 +6336,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F137" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6380,10 +6365,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F138" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6409,10 +6394,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F139" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6438,10 +6423,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F140" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G140" t="n">
         <v>3</v>
@@ -6467,10 +6452,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F141" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6496,10 +6481,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F142" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6525,10 +6510,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F143" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G143" t="n">
         <v>9</v>
@@ -6554,10 +6539,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F144" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G144" t="n">
         <v>9</v>
@@ -6583,10 +6568,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F145" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G145" t="n">
         <v>18</v>
@@ -6612,10 +6597,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F146" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6641,10 +6626,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F147" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6670,10 +6655,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F148" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6699,10 +6684,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F149" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6728,10 +6713,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F150" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6757,10 +6742,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F151" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6786,10 +6771,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F152" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6815,10 +6800,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F153" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6844,10 +6829,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F154" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6873,10 +6858,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F155" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6902,10 +6887,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F156" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6931,10 +6916,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F157" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6960,10 +6945,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F158" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6989,10 +6974,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F159" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7018,10 +7003,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F160" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -7047,10 +7032,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F161" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G161" t="n">
         <v>2</v>
@@ -7076,10 +7061,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F162" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7105,10 +7090,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F163" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7134,10 +7119,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F164" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7163,10 +7148,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F165" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -7192,10 +7177,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F166" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7221,10 +7206,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F167" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7250,10 +7235,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F168" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7279,10 +7264,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F169" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7308,10 +7293,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F170" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7337,10 +7322,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F171" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7366,10 +7351,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F172" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7395,10 +7380,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F173" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7424,10 +7409,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F174" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7453,10 +7438,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F175" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7482,10 +7467,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F176" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7511,10 +7496,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F177" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7540,10 +7525,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F178" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7569,10 +7554,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F179" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7598,10 +7583,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F180" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7627,10 +7612,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F181" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7656,10 +7641,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F182" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7685,10 +7670,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F183" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7714,10 +7699,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F184" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7743,10 +7728,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F185" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7772,10 +7757,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F186" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7801,10 +7786,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F187" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7830,10 +7815,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F188" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7859,10 +7844,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F189" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7888,10 +7873,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F190" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7917,10 +7902,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F191" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7946,10 +7931,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F192" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7975,10 +7960,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F193" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8004,10 +7989,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F194" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8033,10 +8018,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F195" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8062,10 +8047,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F196" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8091,10 +8076,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F197" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8120,10 +8105,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F198" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8149,10 +8134,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F199" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8178,10 +8163,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F200" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8207,10 +8192,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F201" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8236,10 +8221,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F202" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8265,10 +8250,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F203" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8294,10 +8279,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F204" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8323,10 +8308,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F205" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8352,10 +8337,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F206" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8381,10 +8366,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F207" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8410,10 +8395,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F208" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8439,10 +8424,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F209" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8468,10 +8453,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F210" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8497,10 +8482,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F211" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8526,10 +8511,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F212" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8555,10 +8540,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F213" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8584,10 +8569,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F214" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G214" t="n">
         <v>2</v>
@@ -8613,10 +8598,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F215" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8642,10 +8627,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F216" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8671,10 +8656,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F217" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8700,10 +8685,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F218" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8729,10 +8714,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F219" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8758,10 +8743,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F220" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8787,10 +8772,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F221" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8816,10 +8801,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F222" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8845,10 +8830,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F223" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8874,10 +8859,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F224" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8903,10 +8888,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F225" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8932,10 +8917,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F226" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8961,10 +8946,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F227" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8990,10 +8975,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F228" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9019,10 +9004,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F229" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9048,10 +9033,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F230" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9077,10 +9062,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F231" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9106,10 +9091,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F232" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9135,10 +9120,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F233" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9164,10 +9149,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F234" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9193,10 +9178,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F235" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9222,10 +9207,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F236" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9251,10 +9236,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F237" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9280,10 +9265,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F238" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9309,10 +9294,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F239" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9338,10 +9323,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F240" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9367,10 +9352,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F241" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9396,10 +9381,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F242" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9425,10 +9410,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F243" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9454,10 +9439,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F244" t="s">
-        <v>476</v>
+        <v>243</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9483,10 +9468,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F245" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9512,10 +9497,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F246" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9541,10 +9526,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F247" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9570,10 +9555,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F248" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9599,10 +9584,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F249" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9628,10 +9613,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F250" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9657,10 +9642,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F251" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9686,10 +9671,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F252" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9715,10 +9700,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F253" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G253" t="n">
         <v>4</v>
@@ -9744,10 +9729,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F254" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9773,10 +9758,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F255" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9802,10 +9787,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F256" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9831,10 +9816,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F257" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9860,10 +9845,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F258" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9889,10 +9874,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F259" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9918,10 +9903,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F260" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9947,10 +9932,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
+        <v>220</v>
+      </c>
+      <c r="F261" t="s">
         <v>221</v>
-      </c>
-      <c r="F261" t="s">
-        <v>222</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9976,10 +9961,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F262" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10005,10 +9990,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F263" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10034,10 +10019,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F264" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10063,10 +10048,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F265" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="G265" t="n">
         <v>2</v>
@@ -10092,10 +10077,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F266" t="s">
-        <v>518</v>
+        <v>219</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10121,10 +10106,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F267" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10150,10 +10135,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F268" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="G268" t="n">
         <v>2</v>
@@ -10179,10 +10164,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F269" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="G269" t="n">
         <v>3</v>
@@ -10208,10 +10193,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F270" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10237,10 +10222,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="F271" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10266,10 +10251,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="F272" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="G272" t="n">
         <v>4</v>
@@ -10295,10 +10280,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="F273" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="G273" t="n">
         <v>3</v>
@@ -10324,10 +10309,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="F274" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="G274" t="n">
         <v>4</v>
@@ -10353,10 +10338,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="F275" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10382,10 +10367,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="F276" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10411,10 +10396,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="F277" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="G277" t="n">
         <v>2</v>
@@ -10440,10 +10425,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="F278" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10469,10 +10454,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="F279" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10498,10 +10483,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="F280" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10527,10 +10512,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="F281" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10556,10 +10541,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="F282" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10585,10 +10570,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F283" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10614,10 +10599,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="F284" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10643,10 +10628,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="F285" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10672,10 +10657,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="F286" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10701,10 +10686,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="F287" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10730,10 +10715,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="F288" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="G288" t="n">
         <v>2</v>
@@ -10759,10 +10744,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F289" t="s">
-        <v>518</v>
+        <v>219</v>
       </c>
       <c r="G289" t="n">
         <v>3</v>
@@ -10788,10 +10773,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
+        <v>220</v>
+      </c>
+      <c r="F290" t="s">
         <v>221</v>
-      </c>
-      <c r="F290" t="s">
-        <v>222</v>
       </c>
       <c r="G290" t="n">
         <v>2</v>
@@ -10817,10 +10802,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="F291" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10846,10 +10831,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="F292" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="G292" t="n">
         <v>5</v>
@@ -10875,10 +10860,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="F293" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="G293" t="n">
         <v>2</v>
@@ -10904,10 +10889,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F294" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -10933,10 +10918,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="F295" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -10962,10 +10947,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="F296" t="s">
-        <v>570</v>
+        <v>264</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -10991,10 +10976,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="F297" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11020,10 +11005,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="F298" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11049,10 +11034,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="F299" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11078,10 +11063,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="F300" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11107,10 +11092,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="F301" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="G301" t="n">
         <v>2</v>
@@ -11136,10 +11121,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="F302" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11165,10 +11150,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="F303" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11194,10 +11179,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="F304" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11223,10 +11208,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="F305" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11252,10 +11237,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="F306" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11281,10 +11266,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="F307" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11310,10 +11295,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="F308" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11339,10 +11324,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="F309" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11368,10 +11353,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="F310" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11397,10 +11382,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="F311" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11426,10 +11411,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="F312" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11455,10 +11440,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="F313" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11484,10 +11469,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="F314" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11513,10 +11498,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F315" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11542,10 +11527,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="F316" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11571,10 +11556,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="F317" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="G317" t="n">
         <v>2</v>
@@ -11600,10 +11585,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="F318" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11629,10 +11614,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="F319" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11658,10 +11643,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="F320" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11687,10 +11672,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="F321" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -11716,10 +11701,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="F322" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -11745,10 +11730,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="F323" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -11774,10 +11759,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="F324" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -11803,10 +11788,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="F325" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -11832,10 +11817,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="F326" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -11861,10 +11846,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="F327" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -11890,10 +11875,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="F328" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -11919,10 +11904,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="F329" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -11948,10 +11933,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="F330" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="G330" t="n">
         <v>4</v>
@@ -11977,10 +11962,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="F331" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12006,10 +11991,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="F332" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12035,10 +12020,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="F333" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12064,10 +12049,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="F334" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12093,10 +12078,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="F335" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12122,10 +12107,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="F336" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12151,10 +12136,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="F337" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12180,10 +12165,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="F338" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12209,10 +12194,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="F339" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12238,10 +12223,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="F340" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12267,10 +12252,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="F341" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12296,10 +12281,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="F342" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12325,10 +12310,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="F343" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12354,10 +12339,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="F344" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12383,10 +12368,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="F345" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12412,10 +12397,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="F346" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12441,10 +12426,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="F347" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12470,10 +12455,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="F348" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12499,10 +12484,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="F349" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="G349" t="n">
         <v>4</v>
@@ -12528,10 +12513,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="F350" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
